--- a/Python/football_analysis/2021年微博比赛结果分析.xlsx
+++ b/Python/football_analysis/2021年微博比赛结果分析.xlsx
@@ -1,36 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Dropbox/code/learn/Python/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC86B21-9DFC-734E-9E8B-15966378D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFBC56-C109-C345-9DB8-A3AF7E773D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
-    <sheet name="联赛" sheetId="2" r:id="rId2"/>
-    <sheet name="玩法分类" sheetId="3" r:id="rId3"/>
-    <sheet name="大小球" sheetId="4" r:id="rId4"/>
-    <sheet name="让球" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="联赛" sheetId="2" r:id="rId3"/>
+    <sheet name="玩法分类" sheetId="3" r:id="rId4"/>
+    <sheet name="大小球" sheetId="4" r:id="rId5"/>
+    <sheet name="让球" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">大小球!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">玩法分类!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">联赛!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">让球!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">大小球!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总!$A$1:$K$823</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">玩法分类!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">联赛!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">让球!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="1690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="1690">
   <si>
     <t>日期</t>
   </si>
@@ -5106,7 +5118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5118,6 +5130,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5158,11 +5177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5501,10 +5521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K823"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5541,7 +5562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5573,7 +5594,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5605,7 +5626,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5637,7 +5658,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5669,7 +5690,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5701,7 +5722,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5733,7 +5754,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5765,7 +5786,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5797,7 +5818,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5829,7 +5850,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5861,7 +5882,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5893,7 +5914,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5925,7 +5946,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5957,7 +5978,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5989,7 +6010,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6021,7 +6042,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6053,7 +6074,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6085,7 +6106,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6117,7 +6138,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6149,7 +6170,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6181,7 +6202,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6213,7 +6234,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6245,7 +6266,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6277,7 +6298,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6309,7 +6330,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6341,7 +6362,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6373,7 +6394,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6405,7 +6426,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6437,7 +6458,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6469,7 +6490,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6501,7 +6522,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6533,7 +6554,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6565,7 +6586,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6597,7 +6618,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6629,7 +6650,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6661,7 +6682,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6693,7 +6714,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6725,7 +6746,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6757,7 +6778,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6789,7 +6810,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6821,7 +6842,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6853,7 +6874,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6885,7 +6906,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6917,7 +6938,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6949,7 +6970,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6981,7 +7002,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7013,7 +7034,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7045,7 +7066,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7077,7 +7098,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7109,7 +7130,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7141,7 +7162,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7173,7 +7194,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7205,7 +7226,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7237,7 +7258,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7269,7 +7290,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7301,7 +7322,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7333,7 +7354,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7365,7 +7386,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7397,7 +7418,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7429,7 +7450,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7461,7 +7482,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7493,7 +7514,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7525,7 +7546,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7557,7 +7578,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7589,7 +7610,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7621,7 +7642,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7653,7 +7674,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7685,7 +7706,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7717,7 +7738,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7749,7 +7770,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7781,7 +7802,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7813,7 +7834,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7845,7 +7866,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7877,7 +7898,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7909,7 +7930,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7941,7 +7962,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7973,7 +7994,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8005,7 +8026,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8037,7 +8058,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8069,7 +8090,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8101,7 +8122,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8133,7 +8154,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8165,7 +8186,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8325,7 +8346,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8357,7 +8378,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8453,7 +8474,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8485,7 +8506,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8517,7 +8538,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8549,7 +8570,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8581,7 +8602,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8613,7 +8634,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8645,7 +8666,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8677,7 +8698,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8709,7 +8730,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8741,7 +8762,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8773,7 +8794,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -8805,7 +8826,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -8837,7 +8858,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -8869,7 +8890,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>3</v>
       </c>
@@ -8901,7 +8922,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -8933,7 +8954,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>5</v>
       </c>
@@ -8965,7 +8986,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>6</v>
       </c>
@@ -8997,7 +9018,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>7</v>
       </c>
@@ -9029,7 +9050,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>8</v>
       </c>
@@ -9061,7 +9082,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>9</v>
       </c>
@@ -9093,7 +9114,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>10</v>
       </c>
@@ -9125,7 +9146,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>11</v>
       </c>
@@ -9253,7 +9274,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>15</v>
       </c>
@@ -9285,7 +9306,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>16</v>
       </c>
@@ -9317,7 +9338,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>17</v>
       </c>
@@ -9349,7 +9370,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>18</v>
       </c>
@@ -9381,7 +9402,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>19</v>
       </c>
@@ -9413,7 +9434,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>20</v>
       </c>
@@ -9477,7 +9498,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>22</v>
       </c>
@@ -9509,7 +9530,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>23</v>
       </c>
@@ -9541,7 +9562,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>24</v>
       </c>
@@ -9573,7 +9594,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>25</v>
       </c>
@@ -9605,7 +9626,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>26</v>
       </c>
@@ -9637,7 +9658,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>27</v>
       </c>
@@ -9669,7 +9690,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>28</v>
       </c>
@@ -9797,7 +9818,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>32</v>
       </c>
@@ -9829,7 +9850,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>33</v>
       </c>
@@ -9861,7 +9882,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>34</v>
       </c>
@@ -9893,7 +9914,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>35</v>
       </c>
@@ -9925,7 +9946,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36</v>
       </c>
@@ -9957,7 +9978,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>37</v>
       </c>
@@ -9989,7 +10010,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>38</v>
       </c>
@@ -10021,7 +10042,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>39</v>
       </c>
@@ -10053,7 +10074,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40</v>
       </c>
@@ -10085,7 +10106,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>41</v>
       </c>
@@ -10117,7 +10138,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>42</v>
       </c>
@@ -10149,7 +10170,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43</v>
       </c>
@@ -10181,7 +10202,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44</v>
       </c>
@@ -10213,7 +10234,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>45</v>
       </c>
@@ -10245,7 +10266,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>46</v>
       </c>
@@ -10277,7 +10298,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>47</v>
       </c>
@@ -10309,7 +10330,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>48</v>
       </c>
@@ -10341,7 +10362,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>49</v>
       </c>
@@ -10373,7 +10394,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>50</v>
       </c>
@@ -10405,7 +10426,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>51</v>
       </c>
@@ -10437,7 +10458,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>52</v>
       </c>
@@ -10469,7 +10490,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -10501,7 +10522,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1</v>
       </c>
@@ -10533,7 +10554,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -10565,7 +10586,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>3</v>
       </c>
@@ -10597,7 +10618,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>4</v>
       </c>
@@ -10629,7 +10650,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>5</v>
       </c>
@@ -10661,7 +10682,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>6</v>
       </c>
@@ -10693,7 +10714,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>7</v>
       </c>
@@ -10725,7 +10746,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>8</v>
       </c>
@@ -10757,7 +10778,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>9</v>
       </c>
@@ -10789,7 +10810,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>10</v>
       </c>
@@ -10821,7 +10842,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>11</v>
       </c>
@@ -10853,7 +10874,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>12</v>
       </c>
@@ -10885,7 +10906,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>13</v>
       </c>
@@ -10917,7 +10938,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>14</v>
       </c>
@@ -10952,7 +10973,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>15</v>
       </c>
@@ -10984,7 +11005,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>16</v>
       </c>
@@ -11016,7 +11037,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>17</v>
       </c>
@@ -11112,7 +11133,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>20</v>
       </c>
@@ -11176,7 +11197,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>22</v>
       </c>
@@ -11240,7 +11261,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>24</v>
       </c>
@@ -11272,7 +11293,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>25</v>
       </c>
@@ -11336,7 +11357,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>27</v>
       </c>
@@ -11368,7 +11389,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>28</v>
       </c>
@@ -11400,7 +11421,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>29</v>
       </c>
@@ -11432,7 +11453,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>30</v>
       </c>
@@ -11464,7 +11485,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>31</v>
       </c>
@@ -11496,7 +11517,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>32</v>
       </c>
@@ -11528,7 +11549,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>33</v>
       </c>
@@ -11560,7 +11581,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>34</v>
       </c>
@@ -11592,7 +11613,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>35</v>
       </c>
@@ -11624,7 +11645,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>36</v>
       </c>
@@ -11656,7 +11677,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>37</v>
       </c>
@@ -11688,7 +11709,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38</v>
       </c>
@@ -11720,7 +11741,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>39</v>
       </c>
@@ -11752,7 +11773,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>40</v>
       </c>
@@ -11784,7 +11805,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>41</v>
       </c>
@@ -11816,7 +11837,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>42</v>
       </c>
@@ -11848,7 +11869,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43</v>
       </c>
@@ -11880,7 +11901,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44</v>
       </c>
@@ -11944,7 +11965,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>46</v>
       </c>
@@ -11976,7 +11997,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>47</v>
       </c>
@@ -12008,7 +12029,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>48</v>
       </c>
@@ -12040,7 +12061,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>49</v>
       </c>
@@ -12072,7 +12093,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>50</v>
       </c>
@@ -12104,7 +12125,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>51</v>
       </c>
@@ -12136,7 +12157,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>52</v>
       </c>
@@ -12168,7 +12189,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>53</v>
       </c>
@@ -12200,7 +12221,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>54</v>
       </c>
@@ -12232,7 +12253,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>55</v>
       </c>
@@ -12264,7 +12285,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>56</v>
       </c>
@@ -12296,7 +12317,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>57</v>
       </c>
@@ -12328,7 +12349,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>58</v>
       </c>
@@ -12360,7 +12381,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>59</v>
       </c>
@@ -12392,7 +12413,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>60</v>
       </c>
@@ -12424,7 +12445,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>61</v>
       </c>
@@ -12456,7 +12477,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>62</v>
       </c>
@@ -12488,7 +12509,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>63</v>
       </c>
@@ -12520,7 +12541,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>64</v>
       </c>
@@ -12552,7 +12573,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>65</v>
       </c>
@@ -12584,7 +12605,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>66</v>
       </c>
@@ -12616,7 +12637,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>67</v>
       </c>
@@ -12648,7 +12669,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>68</v>
       </c>
@@ -12680,7 +12701,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>69</v>
       </c>
@@ -12712,7 +12733,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>70</v>
       </c>
@@ -12744,7 +12765,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>71</v>
       </c>
@@ -12776,7 +12797,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>72</v>
       </c>
@@ -12808,7 +12829,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -12840,7 +12861,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>1</v>
       </c>
@@ -12872,7 +12893,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -12904,7 +12925,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>3</v>
       </c>
@@ -12936,7 +12957,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>4</v>
       </c>
@@ -12968,7 +12989,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>5</v>
       </c>
@@ -13000,7 +13021,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>6</v>
       </c>
@@ -13032,7 +13053,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>7</v>
       </c>
@@ -13064,7 +13085,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>8</v>
       </c>
@@ -13096,7 +13117,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>9</v>
       </c>
@@ -13128,7 +13149,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>10</v>
       </c>
@@ -13160,7 +13181,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>11</v>
       </c>
@@ -13192,7 +13213,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>12</v>
       </c>
@@ -13224,7 +13245,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>13</v>
       </c>
@@ -13256,7 +13277,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>14</v>
       </c>
@@ -13288,7 +13309,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>15</v>
       </c>
@@ -13320,7 +13341,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>16</v>
       </c>
@@ -13352,7 +13373,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>17</v>
       </c>
@@ -13384,7 +13405,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>18</v>
       </c>
@@ -13416,7 +13437,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>19</v>
       </c>
@@ -13608,7 +13629,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>25</v>
       </c>
@@ -13640,7 +13661,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>26</v>
       </c>
@@ -13672,7 +13693,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>27</v>
       </c>
@@ -13704,7 +13725,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>28</v>
       </c>
@@ -13736,7 +13757,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>29</v>
       </c>
@@ -13768,7 +13789,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>30</v>
       </c>
@@ -13800,7 +13821,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>31</v>
       </c>
@@ -13832,7 +13853,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>32</v>
       </c>
@@ -13864,7 +13885,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>33</v>
       </c>
@@ -13896,7 +13917,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>34</v>
       </c>
@@ -13928,7 +13949,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>35</v>
       </c>
@@ -13960,7 +13981,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>36</v>
       </c>
@@ -13992,7 +14013,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>37</v>
       </c>
@@ -14024,7 +14045,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>38</v>
       </c>
@@ -14056,7 +14077,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>39</v>
       </c>
@@ -14088,7 +14109,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40</v>
       </c>
@@ -14120,7 +14141,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>41</v>
       </c>
@@ -14152,7 +14173,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>42</v>
       </c>
@@ -14184,7 +14205,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>43</v>
       </c>
@@ -14216,7 +14237,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44</v>
       </c>
@@ -14248,7 +14269,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>45</v>
       </c>
@@ -14280,7 +14301,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>46</v>
       </c>
@@ -14312,7 +14333,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>47</v>
       </c>
@@ -14344,7 +14365,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>48</v>
       </c>
@@ -14376,7 +14397,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>49</v>
       </c>
@@ -14408,7 +14429,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>50</v>
       </c>
@@ -14440,7 +14461,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>51</v>
       </c>
@@ -14472,7 +14493,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>52</v>
       </c>
@@ -14504,7 +14525,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>53</v>
       </c>
@@ -14536,7 +14557,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>54</v>
       </c>
@@ -14568,7 +14589,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>55</v>
       </c>
@@ -14600,7 +14621,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>56</v>
       </c>
@@ -14632,7 +14653,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>57</v>
       </c>
@@ -14728,7 +14749,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>60</v>
       </c>
@@ -14760,7 +14781,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>61</v>
       </c>
@@ -14792,7 +14813,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>62</v>
       </c>
@@ -14824,7 +14845,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>63</v>
       </c>
@@ -14856,7 +14877,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>64</v>
       </c>
@@ -14888,7 +14909,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>65</v>
       </c>
@@ -14920,7 +14941,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>66</v>
       </c>
@@ -15112,7 +15133,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>72</v>
       </c>
@@ -15176,7 +15197,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>74</v>
       </c>
@@ -15208,7 +15229,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>75</v>
       </c>
@@ -15240,7 +15261,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>76</v>
       </c>
@@ -15272,7 +15293,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>77</v>
       </c>
@@ -15304,7 +15325,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>78</v>
       </c>
@@ -15336,7 +15357,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>79</v>
       </c>
@@ -15368,7 +15389,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>80</v>
       </c>
@@ -15400,7 +15421,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>81</v>
       </c>
@@ -15432,7 +15453,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>82</v>
       </c>
@@ -15464,7 +15485,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>83</v>
       </c>
@@ -15496,7 +15517,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>84</v>
       </c>
@@ -15528,7 +15549,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>85</v>
       </c>
@@ -15624,7 +15645,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>0</v>
       </c>
@@ -15656,7 +15677,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>1</v>
       </c>
@@ -15688,7 +15709,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>2</v>
       </c>
@@ -15720,7 +15741,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>3</v>
       </c>
@@ -15752,7 +15773,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>4</v>
       </c>
@@ -15784,7 +15805,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>5</v>
       </c>
@@ -15848,7 +15869,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>7</v>
       </c>
@@ -15880,7 +15901,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>8</v>
       </c>
@@ -15912,7 +15933,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>9</v>
       </c>
@@ -15979,7 +16000,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>11</v>
       </c>
@@ -16011,7 +16032,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>12</v>
       </c>
@@ -16043,7 +16064,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>13</v>
       </c>
@@ -16075,7 +16096,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>14</v>
       </c>
@@ -16107,7 +16128,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>15</v>
       </c>
@@ -16174,7 +16195,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>17</v>
       </c>
@@ -16206,7 +16227,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>18</v>
       </c>
@@ -16238,7 +16259,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>19</v>
       </c>
@@ -16270,7 +16291,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>20</v>
       </c>
@@ -16302,7 +16323,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>21</v>
       </c>
@@ -16334,7 +16355,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>22</v>
       </c>
@@ -16366,7 +16387,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>23</v>
       </c>
@@ -16398,7 +16419,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>24</v>
       </c>
@@ -16430,7 +16451,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>25</v>
       </c>
@@ -16462,7 +16483,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>26</v>
       </c>
@@ -16494,7 +16515,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>27</v>
       </c>
@@ -16526,7 +16547,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>28</v>
       </c>
@@ -16558,7 +16579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>29</v>
       </c>
@@ -16590,7 +16611,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>30</v>
       </c>
@@ -16622,7 +16643,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>31</v>
       </c>
@@ -16654,7 +16675,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>32</v>
       </c>
@@ -16686,7 +16707,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>33</v>
       </c>
@@ -16718,7 +16739,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>34</v>
       </c>
@@ -16750,7 +16771,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>35</v>
       </c>
@@ -16782,7 +16803,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>36</v>
       </c>
@@ -16814,7 +16835,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>37</v>
       </c>
@@ -16846,7 +16867,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>38</v>
       </c>
@@ -16878,7 +16899,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>39</v>
       </c>
@@ -16910,7 +16931,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>40</v>
       </c>
@@ -16942,7 +16963,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>41</v>
       </c>
@@ -16974,7 +16995,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>42</v>
       </c>
@@ -17006,7 +17027,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43</v>
       </c>
@@ -17038,7 +17059,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44</v>
       </c>
@@ -17070,7 +17091,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>45</v>
       </c>
@@ -17102,7 +17123,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>46</v>
       </c>
@@ -17134,7 +17155,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>47</v>
       </c>
@@ -17169,7 +17190,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>48</v>
       </c>
@@ -17204,7 +17225,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>49</v>
       </c>
@@ -17236,7 +17257,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>50</v>
       </c>
@@ -17271,7 +17292,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>51</v>
       </c>
@@ -17303,7 +17324,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>52</v>
       </c>
@@ -17370,7 +17391,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>54</v>
       </c>
@@ -17402,7 +17423,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>55</v>
       </c>
@@ -17434,7 +17455,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>56</v>
       </c>
@@ -17466,7 +17487,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>57</v>
       </c>
@@ -17498,7 +17519,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>58</v>
       </c>
@@ -17690,7 +17711,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>64</v>
       </c>
@@ -17722,7 +17743,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>65</v>
       </c>
@@ -17754,7 +17775,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>66</v>
       </c>
@@ -17786,7 +17807,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>67</v>
       </c>
@@ -17818,7 +17839,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>68</v>
       </c>
@@ -17850,7 +17871,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>69</v>
       </c>
@@ -17914,7 +17935,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>71</v>
       </c>
@@ -17946,7 +17967,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>72</v>
       </c>
@@ -17978,7 +17999,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>73</v>
       </c>
@@ -18010,7 +18031,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>74</v>
       </c>
@@ -18042,7 +18063,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -18074,7 +18095,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>1</v>
       </c>
@@ -18106,7 +18127,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>2</v>
       </c>
@@ -18138,7 +18159,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>3</v>
       </c>
@@ -18170,7 +18191,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>4</v>
       </c>
@@ -18202,7 +18223,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>5</v>
       </c>
@@ -18234,7 +18255,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>6</v>
       </c>
@@ -18266,7 +18287,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>7</v>
       </c>
@@ -18298,7 +18319,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>8</v>
       </c>
@@ -18330,7 +18351,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>9</v>
       </c>
@@ -18362,7 +18383,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>10</v>
       </c>
@@ -18394,7 +18415,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>11</v>
       </c>
@@ -18426,7 +18447,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>12</v>
       </c>
@@ -18461,7 +18482,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>13</v>
       </c>
@@ -18496,7 +18517,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>14</v>
       </c>
@@ -18531,7 +18552,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>15</v>
       </c>
@@ -18563,7 +18584,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>16</v>
       </c>
@@ -18595,7 +18616,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>17</v>
       </c>
@@ -18627,7 +18648,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>18</v>
       </c>
@@ -18662,7 +18683,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>19</v>
       </c>
@@ -18694,7 +18715,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>20</v>
       </c>
@@ -18726,7 +18747,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>21</v>
       </c>
@@ -18761,7 +18782,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>22</v>
       </c>
@@ -18793,7 +18814,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>23</v>
       </c>
@@ -18825,7 +18846,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>24</v>
       </c>
@@ -18857,7 +18878,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>25</v>
       </c>
@@ -18889,7 +18910,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>26</v>
       </c>
@@ -18953,7 +18974,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>28</v>
       </c>
@@ -18985,7 +19006,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>29</v>
       </c>
@@ -19017,7 +19038,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>30</v>
       </c>
@@ -19052,7 +19073,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>31</v>
       </c>
@@ -19084,7 +19105,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>32</v>
       </c>
@@ -19116,7 +19137,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>33</v>
       </c>
@@ -19148,7 +19169,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>34</v>
       </c>
@@ -19180,7 +19201,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>35</v>
       </c>
@@ -19212,7 +19233,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>36</v>
       </c>
@@ -19244,7 +19265,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>37</v>
       </c>
@@ -19276,7 +19297,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>38</v>
       </c>
@@ -19308,7 +19329,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>39</v>
       </c>
@@ -19340,7 +19361,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>40</v>
       </c>
@@ -19372,7 +19393,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>41</v>
       </c>
@@ -19404,7 +19425,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>42</v>
       </c>
@@ -19436,7 +19457,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>43</v>
       </c>
@@ -19596,7 +19617,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>48</v>
       </c>
@@ -19628,7 +19649,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>0</v>
       </c>
@@ -19660,7 +19681,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>1</v>
       </c>
@@ -19692,7 +19713,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>2</v>
       </c>
@@ -19724,7 +19745,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>3</v>
       </c>
@@ -19756,7 +19777,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>4</v>
       </c>
@@ -19788,7 +19809,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>5</v>
       </c>
@@ -19820,7 +19841,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>6</v>
       </c>
@@ -19852,7 +19873,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>7</v>
       </c>
@@ -19884,7 +19905,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>8</v>
       </c>
@@ -19948,7 +19969,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>10</v>
       </c>
@@ -19980,7 +20001,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>11</v>
       </c>
@@ -20012,7 +20033,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>12</v>
       </c>
@@ -20044,7 +20065,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>13</v>
       </c>
@@ -20076,7 +20097,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>14</v>
       </c>
@@ -20108,7 +20129,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>15</v>
       </c>
@@ -20140,7 +20161,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>16</v>
       </c>
@@ -20172,7 +20193,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>17</v>
       </c>
@@ -20204,7 +20225,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>18</v>
       </c>
@@ -20236,7 +20257,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>19</v>
       </c>
@@ -20268,7 +20289,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>20</v>
       </c>
@@ -20297,7 +20318,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>21</v>
       </c>
@@ -20329,7 +20350,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>22</v>
       </c>
@@ -20361,7 +20382,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>23</v>
       </c>
@@ -20393,7 +20414,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>24</v>
       </c>
@@ -20425,7 +20446,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>25</v>
       </c>
@@ -20457,7 +20478,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>26</v>
       </c>
@@ -20489,7 +20510,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>27</v>
       </c>
@@ -20521,7 +20542,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>28</v>
       </c>
@@ -20553,7 +20574,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>29</v>
       </c>
@@ -20585,7 +20606,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>30</v>
       </c>
@@ -20617,7 +20638,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>31</v>
       </c>
@@ -20649,7 +20670,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>32</v>
       </c>
@@ -20681,7 +20702,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>33</v>
       </c>
@@ -20713,7 +20734,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>34</v>
       </c>
@@ -20745,7 +20766,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>35</v>
       </c>
@@ -20777,7 +20798,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>36</v>
       </c>
@@ -20809,7 +20830,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>37</v>
       </c>
@@ -20841,7 +20862,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>38</v>
       </c>
@@ -20873,7 +20894,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>39</v>
       </c>
@@ -20905,7 +20926,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>40</v>
       </c>
@@ -20937,7 +20958,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>41</v>
       </c>
@@ -20969,7 +20990,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>42</v>
       </c>
@@ -21001,7 +21022,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>43</v>
       </c>
@@ -21033,7 +21054,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>44</v>
       </c>
@@ -21065,7 +21086,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>45</v>
       </c>
@@ -21097,7 +21118,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>46</v>
       </c>
@@ -21129,7 +21150,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>47</v>
       </c>
@@ -21161,7 +21182,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>48</v>
       </c>
@@ -21193,7 +21214,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>49</v>
       </c>
@@ -21225,7 +21246,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>50</v>
       </c>
@@ -21257,7 +21278,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>51</v>
       </c>
@@ -21289,7 +21310,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>52</v>
       </c>
@@ -21321,7 +21342,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>53</v>
       </c>
@@ -21353,7 +21374,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>54</v>
       </c>
@@ -21385,7 +21406,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>55</v>
       </c>
@@ -21417,7 +21438,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>56</v>
       </c>
@@ -21449,7 +21470,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>57</v>
       </c>
@@ -21481,7 +21502,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>58</v>
       </c>
@@ -21513,7 +21534,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>59</v>
       </c>
@@ -21545,7 +21566,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>60</v>
       </c>
@@ -21577,7 +21598,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>61</v>
       </c>
@@ -21609,7 +21630,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>62</v>
       </c>
@@ -21641,7 +21662,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>63</v>
       </c>
@@ -21673,7 +21694,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>64</v>
       </c>
@@ -21705,7 +21726,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>65</v>
       </c>
@@ -21737,7 +21758,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>66</v>
       </c>
@@ -21769,7 +21790,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>67</v>
       </c>
@@ -21801,7 +21822,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>0</v>
       </c>
@@ -21833,7 +21854,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>1</v>
       </c>
@@ -21865,7 +21886,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>2</v>
       </c>
@@ -21897,7 +21918,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>3</v>
       </c>
@@ -21929,7 +21950,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>4</v>
       </c>
@@ -21961,7 +21982,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>5</v>
       </c>
@@ -21993,7 +22014,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>6</v>
       </c>
@@ -22025,7 +22046,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>7</v>
       </c>
@@ -22057,7 +22078,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>8</v>
       </c>
@@ -22089,7 +22110,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>9</v>
       </c>
@@ -22121,7 +22142,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>10</v>
       </c>
@@ -22153,7 +22174,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>11</v>
       </c>
@@ -22185,7 +22206,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>12</v>
       </c>
@@ -22217,7 +22238,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>13</v>
       </c>
@@ -22249,7 +22270,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>14</v>
       </c>
@@ -22281,7 +22302,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>15</v>
       </c>
@@ -22313,7 +22334,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>16</v>
       </c>
@@ -22345,7 +22366,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>17</v>
       </c>
@@ -22377,7 +22398,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>18</v>
       </c>
@@ -22409,7 +22430,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>19</v>
       </c>
@@ -22441,7 +22462,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>20</v>
       </c>
@@ -22473,7 +22494,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>21</v>
       </c>
@@ -22505,7 +22526,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>22</v>
       </c>
@@ -22537,7 +22558,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>23</v>
       </c>
@@ -22569,7 +22590,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>24</v>
       </c>
@@ -22601,7 +22622,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>25</v>
       </c>
@@ -22633,7 +22654,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>26</v>
       </c>
@@ -22665,7 +22686,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>27</v>
       </c>
@@ -22697,7 +22718,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>28</v>
       </c>
@@ -22729,7 +22750,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>29</v>
       </c>
@@ -22761,7 +22782,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>30</v>
       </c>
@@ -22793,7 +22814,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>31</v>
       </c>
@@ -22825,7 +22846,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>32</v>
       </c>
@@ -22857,7 +22878,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>33</v>
       </c>
@@ -22889,7 +22910,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>34</v>
       </c>
@@ -22921,7 +22942,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>35</v>
       </c>
@@ -22953,7 +22974,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>36</v>
       </c>
@@ -22985,7 +23006,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>37</v>
       </c>
@@ -23017,7 +23038,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>38</v>
       </c>
@@ -23049,7 +23070,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>39</v>
       </c>
@@ -23081,7 +23102,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>40</v>
       </c>
@@ -23113,7 +23134,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>41</v>
       </c>
@@ -23145,7 +23166,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>42</v>
       </c>
@@ -23177,7 +23198,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>43</v>
       </c>
@@ -23209,7 +23230,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>44</v>
       </c>
@@ -23241,7 +23262,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>45</v>
       </c>
@@ -23273,7 +23294,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>46</v>
       </c>
@@ -23305,7 +23326,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>47</v>
       </c>
@@ -23337,7 +23358,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>48</v>
       </c>
@@ -23369,7 +23390,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>49</v>
       </c>
@@ -23401,7 +23422,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>50</v>
       </c>
@@ -23433,7 +23454,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>51</v>
       </c>
@@ -23465,7 +23486,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>52</v>
       </c>
@@ -23497,7 +23518,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>53</v>
       </c>
@@ -23529,7 +23550,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>54</v>
       </c>
@@ -23561,7 +23582,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>55</v>
       </c>
@@ -23593,7 +23614,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>56</v>
       </c>
@@ -23625,7 +23646,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>57</v>
       </c>
@@ -23657,7 +23678,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>58</v>
       </c>
@@ -23689,7 +23710,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>0</v>
       </c>
@@ -23721,7 +23742,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>1</v>
       </c>
@@ -23753,7 +23774,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>2</v>
       </c>
@@ -23785,7 +23806,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>3</v>
       </c>
@@ -23817,7 +23838,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>4</v>
       </c>
@@ -23849,7 +23870,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>5</v>
       </c>
@@ -23881,7 +23902,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>6</v>
       </c>
@@ -23913,7 +23934,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>7</v>
       </c>
@@ -23945,7 +23966,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>8</v>
       </c>
@@ -23977,7 +23998,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>9</v>
       </c>
@@ -24009,7 +24030,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>10</v>
       </c>
@@ -24041,7 +24062,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>11</v>
       </c>
@@ -24073,7 +24094,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>12</v>
       </c>
@@ -24105,7 +24126,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>13</v>
       </c>
@@ -24137,7 +24158,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>14</v>
       </c>
@@ -24169,7 +24190,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>15</v>
       </c>
@@ -24201,7 +24222,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>16</v>
       </c>
@@ -24233,7 +24254,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>17</v>
       </c>
@@ -24265,7 +24286,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>18</v>
       </c>
@@ -24297,7 +24318,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>19</v>
       </c>
@@ -24329,7 +24350,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>20</v>
       </c>
@@ -24361,7 +24382,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>21</v>
       </c>
@@ -24393,7 +24414,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>22</v>
       </c>
@@ -24425,7 +24446,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>23</v>
       </c>
@@ -24457,7 +24478,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>24</v>
       </c>
@@ -24489,7 +24510,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>25</v>
       </c>
@@ -24521,7 +24542,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>26</v>
       </c>
@@ -24553,7 +24574,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>27</v>
       </c>
@@ -24585,7 +24606,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>28</v>
       </c>
@@ -24617,7 +24638,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>29</v>
       </c>
@@ -24649,7 +24670,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>30</v>
       </c>
@@ -24681,7 +24702,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>31</v>
       </c>
@@ -24713,7 +24734,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>32</v>
       </c>
@@ -24745,7 +24766,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>33</v>
       </c>
@@ -24777,7 +24798,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>34</v>
       </c>
@@ -24809,7 +24830,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>35</v>
       </c>
@@ -24841,7 +24862,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>36</v>
       </c>
@@ -24873,7 +24894,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>37</v>
       </c>
@@ -24905,7 +24926,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>38</v>
       </c>
@@ -24937,7 +24958,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>39</v>
       </c>
@@ -24969,7 +24990,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>40</v>
       </c>
@@ -25001,7 +25022,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>41</v>
       </c>
@@ -25033,7 +25054,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>42</v>
       </c>
@@ -25065,7 +25086,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>43</v>
       </c>
@@ -25097,7 +25118,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44</v>
       </c>
@@ -25129,7 +25150,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>45</v>
       </c>
@@ -25161,7 +25182,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>46</v>
       </c>
@@ -25193,7 +25214,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>47</v>
       </c>
@@ -25225,7 +25246,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>0</v>
       </c>
@@ -25257,7 +25278,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>1</v>
       </c>
@@ -25289,7 +25310,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>2</v>
       </c>
@@ -25321,7 +25342,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>3</v>
       </c>
@@ -25353,7 +25374,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>4</v>
       </c>
@@ -25385,7 +25406,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>5</v>
       </c>
@@ -25417,7 +25438,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>6</v>
       </c>
@@ -25449,7 +25470,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>7</v>
       </c>
@@ -25481,7 +25502,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>8</v>
       </c>
@@ -25513,7 +25534,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>9</v>
       </c>
@@ -25545,7 +25566,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>10</v>
       </c>
@@ -25577,7 +25598,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>11</v>
       </c>
@@ -25609,7 +25630,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>12</v>
       </c>
@@ -25641,7 +25662,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>13</v>
       </c>
@@ -25673,7 +25694,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>14</v>
       </c>
@@ -25705,7 +25726,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>15</v>
       </c>
@@ -25737,7 +25758,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>16</v>
       </c>
@@ -25769,7 +25790,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>17</v>
       </c>
@@ -25801,7 +25822,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>18</v>
       </c>
@@ -25833,7 +25854,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>19</v>
       </c>
@@ -25865,7 +25886,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>20</v>
       </c>
@@ -25897,7 +25918,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>21</v>
       </c>
@@ -25929,7 +25950,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>22</v>
       </c>
@@ -25961,7 +25982,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>23</v>
       </c>
@@ -25993,7 +26014,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>24</v>
       </c>
@@ -26025,7 +26046,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>25</v>
       </c>
@@ -26057,7 +26078,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>26</v>
       </c>
@@ -26089,7 +26110,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>27</v>
       </c>
@@ -26121,7 +26142,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>28</v>
       </c>
@@ -26153,7 +26174,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>29</v>
       </c>
@@ -26185,7 +26206,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>30</v>
       </c>
@@ -26217,7 +26238,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>31</v>
       </c>
@@ -26249,7 +26270,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>32</v>
       </c>
@@ -26281,7 +26302,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>33</v>
       </c>
@@ -26313,7 +26334,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>34</v>
       </c>
@@ -26345,7 +26366,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>35</v>
       </c>
@@ -26377,7 +26398,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>36</v>
       </c>
@@ -26409,7 +26430,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>37</v>
       </c>
@@ -26441,7 +26462,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>38</v>
       </c>
@@ -26473,7 +26494,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>39</v>
       </c>
@@ -26505,7 +26526,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>40</v>
       </c>
@@ -26537,7 +26558,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>41</v>
       </c>
@@ -26569,7 +26590,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>42</v>
       </c>
@@ -26601,7 +26622,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>43</v>
       </c>
@@ -26633,7 +26654,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>44</v>
       </c>
@@ -26665,7 +26686,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>45</v>
       </c>
@@ -26697,7 +26718,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>46</v>
       </c>
@@ -26729,7 +26750,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>47</v>
       </c>
@@ -26761,7 +26782,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>48</v>
       </c>
@@ -26793,7 +26814,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>49</v>
       </c>
@@ -26825,7 +26846,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>50</v>
       </c>
@@ -26857,7 +26878,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>51</v>
       </c>
@@ -26889,7 +26910,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>52</v>
       </c>
@@ -26921,7 +26942,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>53</v>
       </c>
@@ -26953,7 +26974,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>54</v>
       </c>
@@ -26985,7 +27006,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>55</v>
       </c>
@@ -27017,7 +27038,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>56</v>
       </c>
@@ -27049,7 +27070,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>57</v>
       </c>
@@ -27081,7 +27102,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>58</v>
       </c>
@@ -27113,7 +27134,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>59</v>
       </c>
@@ -27145,7 +27166,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>60</v>
       </c>
@@ -27177,7 +27198,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>61</v>
       </c>
@@ -27209,7 +27230,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>62</v>
       </c>
@@ -27241,7 +27262,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>63</v>
       </c>
@@ -27273,7 +27294,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>64</v>
       </c>
@@ -27305,7 +27326,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>65</v>
       </c>
@@ -27337,7 +27358,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -27369,7 +27390,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>1</v>
       </c>
@@ -27401,7 +27422,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>2</v>
       </c>
@@ -27433,7 +27454,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>3</v>
       </c>
@@ -27465,7 +27486,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>4</v>
       </c>
@@ -27497,7 +27518,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>5</v>
       </c>
@@ -27529,7 +27550,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>6</v>
       </c>
@@ -27561,7 +27582,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>7</v>
       </c>
@@ -27596,7 +27617,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>8</v>
       </c>
@@ -27628,7 +27649,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>9</v>
       </c>
@@ -27660,7 +27681,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>10</v>
       </c>
@@ -27692,7 +27713,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>11</v>
       </c>
@@ -27724,7 +27745,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>12</v>
       </c>
@@ -27756,7 +27777,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>13</v>
       </c>
@@ -27788,7 +27809,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>14</v>
       </c>
@@ -27820,7 +27841,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>15</v>
       </c>
@@ -27852,7 +27873,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>16</v>
       </c>
@@ -27884,7 +27905,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>17</v>
       </c>
@@ -27916,7 +27937,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>18</v>
       </c>
@@ -27948,7 +27969,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>19</v>
       </c>
@@ -27980,7 +28001,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>20</v>
       </c>
@@ -28012,7 +28033,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>21</v>
       </c>
@@ -28044,7 +28065,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>22</v>
       </c>
@@ -28076,7 +28097,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>23</v>
       </c>
@@ -28108,7 +28129,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>24</v>
       </c>
@@ -28140,7 +28161,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>25</v>
       </c>
@@ -28172,7 +28193,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>26</v>
       </c>
@@ -28204,7 +28225,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>27</v>
       </c>
@@ -28236,7 +28257,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>28</v>
       </c>
@@ -28268,7 +28289,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>29</v>
       </c>
@@ -28300,7 +28321,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>30</v>
       </c>
@@ -28332,7 +28353,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>31</v>
       </c>
@@ -28364,7 +28385,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>32</v>
       </c>
@@ -28396,7 +28417,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>33</v>
       </c>
@@ -28428,7 +28449,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>34</v>
       </c>
@@ -28460,7 +28481,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>35</v>
       </c>
@@ -28492,7 +28513,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>36</v>
       </c>
@@ -28524,7 +28545,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>37</v>
       </c>
@@ -28556,7 +28577,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>38</v>
       </c>
@@ -28588,7 +28609,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>39</v>
       </c>
@@ -28620,7 +28641,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>40</v>
       </c>
@@ -28652,7 +28673,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>41</v>
       </c>
@@ -28684,7 +28705,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>42</v>
       </c>
@@ -28716,7 +28737,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>43</v>
       </c>
@@ -28748,7 +28769,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>44</v>
       </c>
@@ -28780,7 +28801,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>45</v>
       </c>
@@ -28812,7 +28833,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>46</v>
       </c>
@@ -28847,7 +28868,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>47</v>
       </c>
@@ -28879,7 +28900,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>48</v>
       </c>
@@ -28911,7 +28932,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>49</v>
       </c>
@@ -28943,7 +28964,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>50</v>
       </c>
@@ -28975,7 +28996,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>51</v>
       </c>
@@ -29007,7 +29028,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>52</v>
       </c>
@@ -29039,7 +29060,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>53</v>
       </c>
@@ -29071,7 +29092,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>54</v>
       </c>
@@ -29103,7 +29124,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>55</v>
       </c>
@@ -29135,7 +29156,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>56</v>
       </c>
@@ -29167,7 +29188,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>57</v>
       </c>
@@ -29199,7 +29220,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>58</v>
       </c>
@@ -29231,7 +29252,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>59</v>
       </c>
@@ -29263,7 +29284,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>60</v>
       </c>
@@ -29295,7 +29316,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>61</v>
       </c>
@@ -29327,7 +29348,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>0</v>
       </c>
@@ -29359,7 +29380,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>1</v>
       </c>
@@ -29391,7 +29412,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>2</v>
       </c>
@@ -29423,7 +29444,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>3</v>
       </c>
@@ -29455,7 +29476,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>4</v>
       </c>
@@ -29487,7 +29508,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>5</v>
       </c>
@@ -29519,7 +29540,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>6</v>
       </c>
@@ -29551,7 +29572,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>7</v>
       </c>
@@ -29583,7 +29604,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>8</v>
       </c>
@@ -29615,7 +29636,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>9</v>
       </c>
@@ -29647,7 +29668,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>10</v>
       </c>
@@ -29679,7 +29700,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>11</v>
       </c>
@@ -29711,7 +29732,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>12</v>
       </c>
@@ -29743,7 +29764,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>13</v>
       </c>
@@ -29775,7 +29796,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>14</v>
       </c>
@@ -29807,7 +29828,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>15</v>
       </c>
@@ -29839,7 +29860,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>16</v>
       </c>
@@ -29871,7 +29892,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>17</v>
       </c>
@@ -29903,7 +29924,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>18</v>
       </c>
@@ -29935,7 +29956,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>19</v>
       </c>
@@ -29967,7 +29988,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>20</v>
       </c>
@@ -29999,7 +30020,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>21</v>
       </c>
@@ -30031,7 +30052,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>22</v>
       </c>
@@ -30063,7 +30084,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>23</v>
       </c>
@@ -30095,7 +30116,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>24</v>
       </c>
@@ -30127,7 +30148,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>25</v>
       </c>
@@ -30159,7 +30180,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>26</v>
       </c>
@@ -30191,7 +30212,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>27</v>
       </c>
@@ -30223,7 +30244,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>28</v>
       </c>
@@ -30255,7 +30276,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>29</v>
       </c>
@@ -30287,7 +30308,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>30</v>
       </c>
@@ -30319,7 +30340,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>31</v>
       </c>
@@ -30351,7 +30372,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>32</v>
       </c>
@@ -30383,7 +30404,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>33</v>
       </c>
@@ -30415,7 +30436,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>34</v>
       </c>
@@ -30447,7 +30468,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>35</v>
       </c>
@@ -30479,7 +30500,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>36</v>
       </c>
@@ -30511,7 +30532,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>37</v>
       </c>
@@ -30543,7 +30564,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>38</v>
       </c>
@@ -30575,7 +30596,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>39</v>
       </c>
@@ -30607,7 +30628,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>40</v>
       </c>
@@ -30639,7 +30660,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>41</v>
       </c>
@@ -30671,7 +30692,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>42</v>
       </c>
@@ -30703,7 +30724,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>43</v>
       </c>
@@ -30735,7 +30756,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>44</v>
       </c>
@@ -30767,7 +30788,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>45</v>
       </c>
@@ -30799,7 +30820,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>46</v>
       </c>
@@ -30831,7 +30852,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>47</v>
       </c>
@@ -30863,7 +30884,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>48</v>
       </c>
@@ -30895,7 +30916,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>49</v>
       </c>
@@ -30927,7 +30948,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>50</v>
       </c>
@@ -30959,7 +30980,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>51</v>
       </c>
@@ -30991,7 +31012,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>52</v>
       </c>
@@ -31023,7 +31044,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>53</v>
       </c>
@@ -31055,7 +31076,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>54</v>
       </c>
@@ -31087,7 +31108,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>55</v>
       </c>
@@ -31119,7 +31140,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>56</v>
       </c>
@@ -31151,7 +31172,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>57</v>
       </c>
@@ -31183,7 +31204,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>58</v>
       </c>
@@ -31215,7 +31236,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>59</v>
       </c>
@@ -31247,7 +31268,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>60</v>
       </c>
@@ -31279,7 +31300,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>61</v>
       </c>
@@ -31311,7 +31332,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>62</v>
       </c>
@@ -31343,7 +31364,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>63</v>
       </c>
@@ -31375,7 +31396,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>64</v>
       </c>
@@ -31407,7 +31428,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>65</v>
       </c>
@@ -31439,7 +31460,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>66</v>
       </c>
@@ -31471,7 +31492,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>67</v>
       </c>
@@ -31503,7 +31524,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>68</v>
       </c>
@@ -31535,7 +31556,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>69</v>
       </c>
@@ -31567,7 +31588,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>70</v>
       </c>
@@ -31599,7 +31620,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>71</v>
       </c>
@@ -31631,7 +31652,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>72</v>
       </c>
@@ -31663,7 +31684,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>73</v>
       </c>
@@ -31695,7 +31716,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>74</v>
       </c>
@@ -31727,7 +31748,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>75</v>
       </c>
@@ -31759,7 +31780,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>76</v>
       </c>
@@ -31791,7 +31812,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>77</v>
       </c>
@@ -31823,7 +31844,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>78</v>
       </c>
@@ -31855,7 +31876,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>79</v>
       </c>
@@ -31885,6 +31906,1525 @@
       </c>
       <c r="K823" t="s">
         <v>1657</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K823" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="2000"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2920C9-A3A6-D44D-86AA-58FA4155F4AA}">
+  <dimension ref="A1:J52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E2">
+        <v>1.02</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2">
+        <v>2040</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E3">
+        <v>0.99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <v>-2000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E4">
+        <v>0.93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>930</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E5">
+        <v>0.89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>1780</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E6">
+        <v>0.94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G6">
+        <v>2000</v>
+      </c>
+      <c r="H6">
+        <v>-2000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E7">
+        <v>0.83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>1660</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E8">
+        <v>0.83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="H8">
+        <v>1660</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E9">
+        <v>0.87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+      <c r="H9">
+        <v>1740</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E10">
+        <v>1.05</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <v>2100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E11">
+        <v>0.94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="H11">
+        <v>-2000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E12">
+        <v>0.98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12">
+        <v>1960</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E13">
+        <v>1.01</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G13">
+        <v>2000</v>
+      </c>
+      <c r="H13">
+        <v>-2000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G14">
+        <v>2000</v>
+      </c>
+      <c r="H14">
+        <v>1800</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" t="s">
+        <v>536</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G15">
+        <v>2000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E16">
+        <v>0.93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G16">
+        <v>2000</v>
+      </c>
+      <c r="H16">
+        <v>1860</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" t="s">
+        <v>539</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E17">
+        <v>1.03</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+      <c r="H17">
+        <v>2060</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E18">
+        <v>0.92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+      <c r="H18">
+        <v>1840</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" t="s">
+        <v>544</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E19">
+        <v>0.87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <v>-2000</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" t="s">
+        <v>563</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E20">
+        <v>0.95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G20">
+        <v>2000</v>
+      </c>
+      <c r="H20">
+        <v>-2000</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E21">
+        <v>0.91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G21">
+        <v>2000</v>
+      </c>
+      <c r="H21">
+        <v>910</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E22">
+        <v>1.03</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G22">
+        <v>2000</v>
+      </c>
+      <c r="H22">
+        <v>-2000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" t="s">
+        <v>611</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E23">
+        <v>1.05</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
+      <c r="H23">
+        <v>-2000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" t="s">
+        <v>612</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E24">
+        <v>0.99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G24">
+        <v>2000</v>
+      </c>
+      <c r="H24">
+        <v>1980</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" t="s">
+        <v>613</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E25">
+        <v>0.91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G25">
+        <v>2000</v>
+      </c>
+      <c r="H25">
+        <v>1820</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" t="s">
+        <v>646</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E26">
+        <v>0.93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G26">
+        <v>2000</v>
+      </c>
+      <c r="H26">
+        <v>-2000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" t="s">
+        <v>647</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E27">
+        <v>0.92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="H27">
+        <v>1840</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" t="s">
+        <v>655</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E28">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G28">
+        <v>2000</v>
+      </c>
+      <c r="H28">
+        <v>2180</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" t="s">
+        <v>656</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E29">
+        <v>0.95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G29">
+        <v>2000</v>
+      </c>
+      <c r="H29">
+        <v>1900</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" t="s">
+        <v>657</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E30">
+        <v>0.95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G30">
+        <v>2000</v>
+      </c>
+      <c r="H30">
+        <v>-2000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" t="s">
+        <v>658</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E31">
+        <v>1.05</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G31">
+        <v>2000</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" t="s">
+        <v>659</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E32">
+        <v>0.89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G32">
+        <v>2000</v>
+      </c>
+      <c r="H32">
+        <v>-2000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" t="s">
+        <v>661</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E33">
+        <v>1.05</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G33">
+        <v>2000</v>
+      </c>
+      <c r="H33">
+        <v>2100</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" t="s">
+        <v>674</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E34">
+        <v>0.97</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G34">
+        <v>2000</v>
+      </c>
+      <c r="H34">
+        <v>-2000</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" t="s">
+        <v>675</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E35">
+        <v>0.97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G35">
+        <v>2000</v>
+      </c>
+      <c r="H35">
+        <v>-2000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" t="s">
+        <v>682</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E36">
+        <v>0.94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G36">
+        <v>2000</v>
+      </c>
+      <c r="H36">
+        <v>1880</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>686</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E37">
+        <v>0.96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G37">
+        <v>2000</v>
+      </c>
+      <c r="H37">
+        <v>-2000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" t="s">
+        <v>692</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E38">
+        <v>0.83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G38">
+        <v>2000</v>
+      </c>
+      <c r="H38">
+        <v>-2000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" t="s">
+        <v>729</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E39">
+        <v>0.85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G39">
+        <v>2000</v>
+      </c>
+      <c r="H39">
+        <v>-2000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" t="s">
+        <v>735</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E40">
+        <v>0.99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G40">
+        <v>2000</v>
+      </c>
+      <c r="H40">
+        <v>-2000</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" t="s">
+        <v>736</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E41">
+        <v>0.95</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G41">
+        <v>2000</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" t="s">
+        <v>737</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E42">
+        <v>0.85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G42">
+        <v>2000</v>
+      </c>
+      <c r="H42">
+        <v>1700</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" t="s">
+        <v>738</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E43">
+        <v>0.96</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G43">
+        <v>2000</v>
+      </c>
+      <c r="H43">
+        <v>-1000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" t="s">
+        <v>739</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G44">
+        <v>2000</v>
+      </c>
+      <c r="H44">
+        <v>-2000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" t="s">
+        <v>746</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E45">
+        <v>0.94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G45">
+        <v>2000</v>
+      </c>
+      <c r="H45">
+        <v>-2000</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" t="s">
+        <v>778</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E46">
+        <v>0.84</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G46">
+        <v>2000</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" t="s">
+        <v>790</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E47">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G47">
+        <v>2000</v>
+      </c>
+      <c r="H47">
+        <v>2260</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" t="s">
+        <v>790</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E48">
+        <v>0.82</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G48">
+        <v>2000</v>
+      </c>
+      <c r="H48">
+        <v>1640</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" t="s">
+        <v>791</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E49">
+        <v>1.06</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G49">
+        <v>2000</v>
+      </c>
+      <c r="H49">
+        <v>-1000</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" t="s">
+        <v>791</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E50">
+        <v>1.08</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G50">
+        <v>2000</v>
+      </c>
+      <c r="H50">
+        <v>-1000</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" t="s">
+        <v>801</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E51">
+        <v>0.84</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G51">
+        <v>2000</v>
+      </c>
+      <c r="H51">
+        <v>-2000</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H52" s="2">
+        <f>SUM(H2:H51)</f>
+        <v>-1360</v>
       </c>
     </row>
   </sheetData>
@@ -31892,7 +33432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
@@ -32696,7 +34236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
@@ -33491,7 +35031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -33596,7 +35136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
